--- a/Code/Results/Cases/Case_1_241/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_241/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.434063171571836</v>
+        <v>1.219803940680094</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0416230622964413</v>
+        <v>0.1058422808887993</v>
       </c>
       <c r="E2">
-        <v>0.09120946875002289</v>
+        <v>0.13028179933346</v>
       </c>
       <c r="F2">
-        <v>4.850323898674958</v>
+        <v>2.878478165862106</v>
       </c>
       <c r="G2">
-        <v>5.024754028769962</v>
+        <v>2.368769996223534</v>
       </c>
       <c r="H2">
-        <v>2.47843721717652</v>
+        <v>1.696868061313182</v>
       </c>
       <c r="I2">
-        <v>11.29355081581588</v>
+        <v>3.961193417866752</v>
       </c>
       <c r="J2">
-        <v>0.2834536328319359</v>
+        <v>0.2151472402880472</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.986638742122068</v>
+        <v>1.06999749926689</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04051448239149202</v>
+        <v>0.1057099897463161</v>
       </c>
       <c r="E3">
-        <v>0.08235840762002411</v>
+        <v>0.129376248143025</v>
       </c>
       <c r="F3">
-        <v>4.184349719911324</v>
+        <v>2.750918434283136</v>
       </c>
       <c r="G3">
-        <v>4.307863690085753</v>
+        <v>2.222640816841505</v>
       </c>
       <c r="H3">
-        <v>2.147840287561962</v>
+        <v>1.636692919714051</v>
       </c>
       <c r="I3">
-        <v>9.844336852165554</v>
+        <v>3.481483530428136</v>
       </c>
       <c r="J3">
-        <v>0.2465701843890287</v>
+        <v>0.208773148833032</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.712641930439929</v>
+        <v>0.9775436500523824</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03987585271801564</v>
+        <v>0.1056316089112226</v>
       </c>
       <c r="E4">
-        <v>0.07719071603106897</v>
+        <v>0.1288919000434596</v>
       </c>
       <c r="F4">
-        <v>3.791403568693568</v>
+        <v>2.674709327376632</v>
       </c>
       <c r="G4">
-        <v>3.884242782924701</v>
+        <v>2.13468666062019</v>
       </c>
       <c r="H4">
-        <v>1.953080656404836</v>
+        <v>1.600961959854857</v>
       </c>
       <c r="I4">
-        <v>8.956724654652447</v>
+        <v>3.186307868167489</v>
       </c>
       <c r="J4">
-        <v>0.2248672674740959</v>
+        <v>0.205012059613054</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601103149140556</v>
+        <v>0.9397517899388959</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03962423066538889</v>
+        <v>0.1056003683078792</v>
       </c>
       <c r="E5">
-        <v>0.07514308405043479</v>
+        <v>0.1287124574646867</v>
       </c>
       <c r="F5">
-        <v>3.63465179650521</v>
+        <v>2.64417696227224</v>
       </c>
       <c r="G5">
-        <v>3.715094691874157</v>
+        <v>2.099280920985308</v>
       </c>
       <c r="H5">
-        <v>1.875460670430925</v>
+        <v>1.586703403558658</v>
       </c>
       <c r="I5">
-        <v>8.595401611000227</v>
+        <v>3.065876933592335</v>
       </c>
       <c r="J5">
-        <v>0.216224135480374</v>
+        <v>0.2035173224339673</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.582587512584553</v>
+        <v>0.9334695415148531</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03958291947764714</v>
+        <v>0.1055952226743999</v>
       </c>
       <c r="E6">
-        <v>0.07480635882001607</v>
+        <v>0.128683741779934</v>
       </c>
       <c r="F6">
-        <v>3.608810373370773</v>
+        <v>2.639138474748648</v>
       </c>
       <c r="G6">
-        <v>3.687199986104361</v>
+        <v>2.093427924020915</v>
       </c>
       <c r="H6">
-        <v>1.862668850673401</v>
+        <v>1.584353915396832</v>
       </c>
       <c r="I6">
-        <v>8.535422914870139</v>
+        <v>3.045871178739986</v>
       </c>
       <c r="J6">
-        <v>0.2148001275454376</v>
+        <v>0.2032714010193857</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.71113728649982</v>
+        <v>0.9770344427025179</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03987242665631019</v>
+        <v>0.1056311847747633</v>
       </c>
       <c r="E7">
-        <v>0.07716287591499338</v>
+        <v>0.1288894075201767</v>
       </c>
       <c r="F7">
-        <v>3.789276660458171</v>
+        <v>2.674295448035082</v>
       </c>
       <c r="G7">
-        <v>3.881948326126491</v>
+        <v>2.134207411306051</v>
       </c>
       <c r="H7">
-        <v>1.952027168106895</v>
+        <v>1.600768445849013</v>
       </c>
       <c r="I7">
-        <v>8.951850372969318</v>
+        <v>3.184684259837638</v>
       </c>
       <c r="J7">
-        <v>0.2247499335128964</v>
+        <v>0.2049917480354679</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.279600047042436</v>
+        <v>1.16825010538281</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04123080752458286</v>
+        <v>0.1057960665953246</v>
       </c>
       <c r="E8">
-        <v>0.08809645794675447</v>
+        <v>0.129954637554043</v>
       </c>
       <c r="F8">
-        <v>4.616966922952514</v>
+        <v>2.834052162487836</v>
       </c>
       <c r="G8">
-        <v>4.773690368440157</v>
+        <v>2.318011996819791</v>
       </c>
       <c r="H8">
-        <v>2.362529046424356</v>
+        <v>1.675864740954125</v>
       </c>
       <c r="I8">
-        <v>10.79329427806584</v>
+        <v>3.795928923952317</v>
       </c>
       <c r="J8">
-        <v>0.2705166943901105</v>
+        <v>0.212917504022812</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.403388309025615</v>
+        <v>1.539389405566055</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04434027670218654</v>
+        <v>0.1061427228871796</v>
       </c>
       <c r="E9">
-        <v>0.1121412317307779</v>
+        <v>0.1326164825695173</v>
       </c>
       <c r="F9">
-        <v>6.401883690225588</v>
+        <v>3.164481609023056</v>
       </c>
       <c r="G9">
-        <v>6.691324449569777</v>
+        <v>2.692914156986546</v>
       </c>
       <c r="H9">
-        <v>3.250625457680655</v>
+        <v>1.832970800449971</v>
       </c>
       <c r="I9">
-        <v>14.43077138200448</v>
+        <v>4.989014804984947</v>
       </c>
       <c r="J9">
-        <v>0.3697532145306468</v>
+        <v>0.2296922894002904</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.239709044502888</v>
+        <v>1.809644099351601</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04710800698849837</v>
+        <v>0.106412707435446</v>
       </c>
       <c r="E10">
-        <v>0.1322578153812337</v>
+        <v>0.1349279334950673</v>
       </c>
       <c r="F10">
-        <v>7.874751479112433</v>
+        <v>3.418265018242977</v>
       </c>
       <c r="G10">
-        <v>8.270465649153721</v>
+        <v>2.977790851650184</v>
       </c>
       <c r="H10">
-        <v>3.985657395166811</v>
+        <v>1.954674957977772</v>
       </c>
       <c r="I10">
-        <v>17.13355518509161</v>
+        <v>5.861568061238813</v>
       </c>
       <c r="J10">
-        <v>0.4520196799240068</v>
+        <v>0.2427996710749767</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.623796921615053</v>
+        <v>1.932050532542007</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04854366836534929</v>
+        <v>0.106539096441006</v>
       </c>
       <c r="E11">
-        <v>0.1422116209382303</v>
+        <v>0.1360582219594733</v>
       </c>
       <c r="F11">
-        <v>8.599716899595848</v>
+        <v>3.536236937461979</v>
       </c>
       <c r="G11">
-        <v>9.047105349505955</v>
+        <v>3.10957700108986</v>
       </c>
       <c r="H11">
-        <v>4.348053639597254</v>
+        <v>2.011467405619328</v>
       </c>
       <c r="I11">
-        <v>18.37337786845455</v>
+        <v>6.25753114434093</v>
       </c>
       <c r="J11">
-        <v>0.4926040446384548</v>
+        <v>0.2489397106595561</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.769885678609512</v>
+        <v>1.978324344474345</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04912162879255177</v>
+        <v>0.1065874905544781</v>
       </c>
       <c r="E12">
-        <v>0.1461277547264324</v>
+        <v>0.1364976832432454</v>
       </c>
       <c r="F12">
-        <v>8.884478073854723</v>
+        <v>3.581282987014646</v>
       </c>
       <c r="G12">
-        <v>9.352083064803765</v>
+        <v>3.15980762891769</v>
       </c>
       <c r="H12">
-        <v>4.490500855715425</v>
+        <v>2.033183669984112</v>
       </c>
       <c r="I12">
-        <v>18.84469284874035</v>
+        <v>6.407322560669741</v>
       </c>
       <c r="J12">
-        <v>0.5085591740632651</v>
+        <v>0.2512908683668513</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.738392214595819</v>
+        <v>1.96836198986199</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04899544965055114</v>
+        <v>0.1065770439752107</v>
       </c>
       <c r="E13">
-        <v>0.1452772041483499</v>
+        <v>0.1364025264829394</v>
       </c>
       <c r="F13">
-        <v>8.822649077710793</v>
+        <v>3.571564784942183</v>
       </c>
       <c r="G13">
-        <v>9.285867886501876</v>
+        <v>3.148974891615353</v>
       </c>
       <c r="H13">
-        <v>4.459567182611863</v>
+        <v>2.02849725803037</v>
       </c>
       <c r="I13">
-        <v>18.74309994099207</v>
+        <v>6.375069214559915</v>
       </c>
       <c r="J13">
-        <v>0.5050942797135463</v>
+        <v>0.2507833367248367</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.635802115247429</v>
+        <v>1.935859098657602</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04859046671048972</v>
+        <v>0.1065430670494472</v>
       </c>
       <c r="E14">
-        <v>0.1425306446752579</v>
+        <v>0.1360941466472845</v>
       </c>
       <c r="F14">
-        <v>8.622923203844294</v>
+        <v>3.539935378736061</v>
       </c>
       <c r="G14">
-        <v>9.071960700315856</v>
+        <v>3.113702908760729</v>
       </c>
       <c r="H14">
-        <v>4.359660138630716</v>
+        <v>2.013249775342672</v>
       </c>
       <c r="I14">
-        <v>18.41211466341952</v>
+        <v>6.269857673436036</v>
       </c>
       <c r="J14">
-        <v>0.4939040121280271</v>
+        <v>0.2491326164057455</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.573050217150353</v>
+        <v>1.915939811075134</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04834719252503028</v>
+        <v>0.1065223252554794</v>
       </c>
       <c r="E15">
-        <v>0.14086852308996</v>
+        <v>0.1359067491117649</v>
       </c>
       <c r="F15">
-        <v>8.501999999128628</v>
+        <v>3.520610273165971</v>
       </c>
       <c r="G15">
-        <v>8.9424415216439</v>
+        <v>3.092140582485115</v>
       </c>
       <c r="H15">
-        <v>4.299185188660545</v>
+        <v>2.003937769423828</v>
       </c>
       <c r="I15">
-        <v>18.20962447570042</v>
+        <v>6.205392518134545</v>
       </c>
       <c r="J15">
-        <v>0.4871307092546289</v>
+        <v>0.2481249124802929</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.214691192306702</v>
+        <v>1.801633628445018</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04701842661003042</v>
+        <v>0.1064045211602469</v>
       </c>
       <c r="E16">
-        <v>0.1316259344029547</v>
+        <v>0.1348556618023871</v>
       </c>
       <c r="F16">
-        <v>7.828661966632097</v>
+        <v>3.410606892642278</v>
       </c>
       <c r="G16">
-        <v>8.221079382949597</v>
+        <v>2.969223366258007</v>
       </c>
       <c r="H16">
-        <v>3.962630935691038</v>
+        <v>1.950992589575719</v>
       </c>
       <c r="I16">
-        <v>17.05276540083531</v>
+        <v>5.835670441680236</v>
       </c>
       <c r="J16">
-        <v>0.4494413804276149</v>
+        <v>0.2424020215006948</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.995863217550948</v>
+        <v>1.731372246120827</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04625389486522913</v>
+        <v>0.1063331807884911</v>
       </c>
       <c r="E17">
-        <v>0.126181007038948</v>
+        <v>0.1342311160739662</v>
       </c>
       <c r="F17">
-        <v>7.431107496256175</v>
+        <v>3.343776744307405</v>
       </c>
       <c r="G17">
-        <v>7.795020981322068</v>
+        <v>2.894387060466613</v>
       </c>
       <c r="H17">
-        <v>3.764077421579202</v>
+        <v>1.918881687400301</v>
       </c>
       <c r="I17">
-        <v>16.34593973321415</v>
+        <v>5.608601612490133</v>
       </c>
       <c r="J17">
-        <v>0.4272116384723006</v>
+        <v>0.2389370388622893</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.870334028617776</v>
+        <v>1.690909632146997</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04583009834074758</v>
+        <v>0.1062924826548013</v>
       </c>
       <c r="E18">
-        <v>0.1231224470740528</v>
+        <v>0.1338793036318329</v>
       </c>
       <c r="F18">
-        <v>7.207443111385089</v>
+        <v>3.305574844941731</v>
       </c>
       <c r="G18">
-        <v>7.55526257698682</v>
+        <v>2.851549089412629</v>
       </c>
       <c r="H18">
-        <v>3.652424255863139</v>
+        <v>1.900546521073124</v>
       </c>
       <c r="I18">
-        <v>15.94034052935717</v>
+        <v>5.477907426104935</v>
       </c>
       <c r="J18">
-        <v>0.414713353007869</v>
+        <v>0.2369607392022033</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.827886082283726</v>
+        <v>1.67720114299982</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04568912425789939</v>
+        <v>0.1062787599065302</v>
       </c>
       <c r="E19">
-        <v>0.1220986372256867</v>
+        <v>0.1337614551878872</v>
       </c>
       <c r="F19">
-        <v>7.132512926873716</v>
+        <v>3.292680760349469</v>
       </c>
       <c r="G19">
-        <v>7.474930559262361</v>
+        <v>2.837079934219787</v>
       </c>
       <c r="H19">
-        <v>3.615027927829942</v>
+        <v>1.89436145048802</v>
       </c>
       <c r="I19">
-        <v>15.80316478742515</v>
+        <v>5.433641513037401</v>
       </c>
       <c r="J19">
-        <v>0.4105276656238601</v>
+        <v>0.2362944442791957</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.019122345915093</v>
+        <v>1.738856893520733</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04633357616534894</v>
+        <v>0.1063407402842653</v>
       </c>
       <c r="E20">
-        <v>0.1267528533708884</v>
+        <v>0.1342968323355507</v>
       </c>
       <c r="F20">
-        <v>7.472895924786883</v>
+        <v>3.350866326720222</v>
       </c>
       <c r="G20">
-        <v>7.839811525199764</v>
+        <v>2.90233212842918</v>
       </c>
       <c r="H20">
-        <v>3.784942487022079</v>
+        <v>1.922286027038183</v>
       </c>
       <c r="I20">
-        <v>16.42108206781114</v>
+        <v>5.632782903627401</v>
       </c>
       <c r="J20">
-        <v>0.4295474305240248</v>
+        <v>0.2393041633429505</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.665916848071788</v>
+        <v>1.945408141632868</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04870840090296191</v>
+        <v>0.1065530322609014</v>
       </c>
       <c r="E21">
-        <v>0.1433330898612937</v>
+        <v>0.136184413718567</v>
       </c>
       <c r="F21">
-        <v>8.681287426108241</v>
+        <v>3.549215510681506</v>
       </c>
       <c r="G21">
-        <v>9.134471070413042</v>
+        <v>3.124054210283646</v>
       </c>
       <c r="H21">
-        <v>4.388852308911623</v>
+        <v>2.017722587296021</v>
       </c>
       <c r="I21">
-        <v>18.50928075155724</v>
+        <v>6.300765052729957</v>
       </c>
       <c r="J21">
-        <v>0.4971736723598639</v>
+        <v>0.249616761358638</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.092447247813993</v>
+        <v>2.079940855282985</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05046740922653115</v>
+        <v>0.1066948957068323</v>
       </c>
       <c r="E22">
-        <v>0.155047938157697</v>
+        <v>0.1374848268051494</v>
       </c>
       <c r="F22">
-        <v>9.53239252690517</v>
+        <v>3.681024872415463</v>
       </c>
       <c r="G22">
-        <v>10.04586460440595</v>
+        <v>3.270868098814447</v>
       </c>
       <c r="H22">
-        <v>4.81481300855296</v>
+        <v>2.081323391753187</v>
       </c>
       <c r="I22">
-        <v>19.88483939217673</v>
+        <v>6.736443306619549</v>
       </c>
       <c r="J22">
-        <v>0.5448878574761835</v>
+        <v>0.2565087896800833</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.864408231949938</v>
+        <v>2.008181005423296</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04950573319130491</v>
+        <v>0.1066188884862704</v>
       </c>
       <c r="E23">
-        <v>0.1487018517919942</v>
+        <v>0.1367846235793699</v>
       </c>
       <c r="F23">
-        <v>9.071539019827725</v>
+        <v>3.610473322205905</v>
       </c>
       <c r="G23">
-        <v>9.552403710438341</v>
+        <v>3.192332840114375</v>
       </c>
       <c r="H23">
-        <v>4.584105078277844</v>
+        <v>2.047264520717476</v>
       </c>
       <c r="I23">
-        <v>19.14956756317588</v>
+        <v>6.503998686294722</v>
       </c>
       <c r="J23">
-        <v>0.5190441050025782</v>
+        <v>0.2528162789516131</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.008606037163872</v>
+        <v>1.735473297351234</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04629750383544007</v>
+        <v>0.10633732165204</v>
       </c>
       <c r="E24">
-        <v>0.126494100225031</v>
+        <v>0.1342670994488167</v>
       </c>
       <c r="F24">
-        <v>7.453988294254202</v>
+        <v>3.347660443095805</v>
       </c>
       <c r="G24">
-        <v>7.819545736806845</v>
+        <v>2.898739583346128</v>
       </c>
       <c r="H24">
-        <v>3.775501694334025</v>
+        <v>1.920746533548197</v>
       </c>
       <c r="I24">
-        <v>16.38710786282729</v>
+        <v>5.62185100597145</v>
       </c>
       <c r="J24">
-        <v>0.4284905502620688</v>
+        <v>0.2391381373017794</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.097905588846913</v>
+        <v>1.43940603174093</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04343309283127539</v>
+        <v>0.1060463370010964</v>
       </c>
       <c r="E25">
-        <v>0.1052804358372335</v>
+        <v>0.1318343853988502</v>
       </c>
       <c r="F25">
-        <v>5.896092321674075</v>
+        <v>3.073198553213103</v>
       </c>
       <c r="G25">
-        <v>6.148476221074361</v>
+        <v>2.589881758271019</v>
       </c>
       <c r="H25">
-        <v>2.998635012376667</v>
+        <v>1.789387422476921</v>
       </c>
       <c r="I25">
-        <v>13.44254217779263</v>
+        <v>4.666914883151094</v>
       </c>
       <c r="J25">
-        <v>0.3415727246336644</v>
+        <v>0.2250191059075775</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_241/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_241/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.219803940680094</v>
+        <v>3.434063171571722</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1058422808887993</v>
+        <v>0.04162306229650348</v>
       </c>
       <c r="E2">
-        <v>0.13028179933346</v>
+        <v>0.09120946875002289</v>
       </c>
       <c r="F2">
-        <v>2.878478165862106</v>
+        <v>4.850323898674958</v>
       </c>
       <c r="G2">
-        <v>2.368769996223534</v>
+        <v>5.024754028769962</v>
       </c>
       <c r="H2">
-        <v>1.696868061313182</v>
+        <v>2.478437217176406</v>
       </c>
       <c r="I2">
-        <v>3.961193417866752</v>
+        <v>11.29355081581571</v>
       </c>
       <c r="J2">
-        <v>0.2151472402880472</v>
+        <v>0.2834536328318507</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.06999749926689</v>
+        <v>2.986638742122068</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1057099897463161</v>
+        <v>0.0405144823916288</v>
       </c>
       <c r="E3">
-        <v>0.129376248143025</v>
+        <v>0.08235840762005964</v>
       </c>
       <c r="F3">
-        <v>2.750918434283136</v>
+        <v>4.184349719911324</v>
       </c>
       <c r="G3">
-        <v>2.222640816841505</v>
+        <v>4.307863690085838</v>
       </c>
       <c r="H3">
-        <v>1.636692919714051</v>
+        <v>2.147840287561962</v>
       </c>
       <c r="I3">
-        <v>3.481483530428136</v>
+        <v>9.844336852165611</v>
       </c>
       <c r="J3">
-        <v>0.208773148833032</v>
+        <v>0.246570184388986</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9775436500523824</v>
+        <v>2.7126419304401</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1056316089112226</v>
+        <v>0.03987585271815242</v>
       </c>
       <c r="E4">
-        <v>0.1288919000434596</v>
+        <v>0.077190716031037</v>
       </c>
       <c r="F4">
-        <v>2.674709327376632</v>
+        <v>3.791403568693568</v>
       </c>
       <c r="G4">
-        <v>2.13468666062019</v>
+        <v>3.88424278292473</v>
       </c>
       <c r="H4">
-        <v>1.600961959854857</v>
+        <v>1.953080656404723</v>
       </c>
       <c r="I4">
-        <v>3.186307868167489</v>
+        <v>8.956724654652504</v>
       </c>
       <c r="J4">
-        <v>0.205012059613054</v>
+        <v>0.2248672674739822</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9397517899388959</v>
+        <v>2.601103149140158</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1056003683078792</v>
+        <v>0.03962423066539422</v>
       </c>
       <c r="E5">
-        <v>0.1287124574646867</v>
+        <v>0.0751430840504419</v>
       </c>
       <c r="F5">
-        <v>2.64417696227224</v>
+        <v>3.63465179650521</v>
       </c>
       <c r="G5">
-        <v>2.099280920985308</v>
+        <v>3.715094691874214</v>
       </c>
       <c r="H5">
-        <v>1.586703403558658</v>
+        <v>1.875460670430812</v>
       </c>
       <c r="I5">
-        <v>3.065876933592335</v>
+        <v>8.595401611000312</v>
       </c>
       <c r="J5">
-        <v>0.2035173224339673</v>
+        <v>0.2162241354803314</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9334695415148531</v>
+        <v>2.582587512584666</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1055952226743999</v>
+        <v>0.03958291947764181</v>
       </c>
       <c r="E6">
-        <v>0.128683741779934</v>
+        <v>0.07480635882001607</v>
       </c>
       <c r="F6">
-        <v>2.639138474748648</v>
+        <v>3.608810373370773</v>
       </c>
       <c r="G6">
-        <v>2.093427924020915</v>
+        <v>3.687199986104361</v>
       </c>
       <c r="H6">
-        <v>1.584353915396832</v>
+        <v>1.862668850673401</v>
       </c>
       <c r="I6">
-        <v>3.045871178739986</v>
+        <v>8.535422914870196</v>
       </c>
       <c r="J6">
-        <v>0.2032714010193857</v>
+        <v>0.214800127545324</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9770344427025179</v>
+        <v>2.711137286499593</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1056311847747633</v>
+        <v>0.03987242665616986</v>
       </c>
       <c r="E7">
-        <v>0.1288894075201767</v>
+        <v>0.07716287591496851</v>
       </c>
       <c r="F7">
-        <v>2.674295448035082</v>
+        <v>3.789276660458171</v>
       </c>
       <c r="G7">
-        <v>2.134207411306051</v>
+        <v>3.881948326126377</v>
       </c>
       <c r="H7">
-        <v>1.600768445849013</v>
+        <v>1.952027168106923</v>
       </c>
       <c r="I7">
-        <v>3.184684259837638</v>
+        <v>8.951850372969403</v>
       </c>
       <c r="J7">
-        <v>0.2049917480354679</v>
+        <v>0.2247499335127969</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.16825010538281</v>
+        <v>3.279600047043175</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1057960665953246</v>
+        <v>0.0412308075246095</v>
       </c>
       <c r="E8">
-        <v>0.129954637554043</v>
+        <v>0.08809645794670828</v>
       </c>
       <c r="F8">
-        <v>2.834052162487836</v>
+        <v>4.616966922952514</v>
       </c>
       <c r="G8">
-        <v>2.318011996819791</v>
+        <v>4.7736903684401</v>
       </c>
       <c r="H8">
-        <v>1.675864740954125</v>
+        <v>2.362529046424299</v>
       </c>
       <c r="I8">
-        <v>3.795928923952317</v>
+        <v>10.79329427806584</v>
       </c>
       <c r="J8">
-        <v>0.212917504022812</v>
+        <v>0.2705166943903379</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.539389405566055</v>
+        <v>4.403388309025559</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1061427228871796</v>
+        <v>0.04434027670219542</v>
       </c>
       <c r="E9">
-        <v>0.1326164825695173</v>
+        <v>0.1121412317307851</v>
       </c>
       <c r="F9">
-        <v>3.164481609023056</v>
+        <v>6.40188369022556</v>
       </c>
       <c r="G9">
-        <v>2.692914156986546</v>
+        <v>6.691324449569834</v>
       </c>
       <c r="H9">
-        <v>1.832970800449971</v>
+        <v>3.250625457680655</v>
       </c>
       <c r="I9">
-        <v>4.989014804984947</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J9">
-        <v>0.2296922894002904</v>
+        <v>0.3697532145306752</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.809644099351601</v>
+        <v>5.239709044502945</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.106412707435446</v>
+        <v>0.0471080069883012</v>
       </c>
       <c r="E10">
-        <v>0.1349279334950673</v>
+        <v>0.1322578153812088</v>
       </c>
       <c r="F10">
-        <v>3.418265018242977</v>
+        <v>7.874751479112405</v>
       </c>
       <c r="G10">
-        <v>2.977790851650184</v>
+        <v>8.270465649153778</v>
       </c>
       <c r="H10">
-        <v>1.954674957977772</v>
+        <v>3.985657395166754</v>
       </c>
       <c r="I10">
-        <v>5.861568061238813</v>
+        <v>17.13355518509132</v>
       </c>
       <c r="J10">
-        <v>0.2427996710749767</v>
+        <v>0.4520196799239073</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.932050532542007</v>
+        <v>5.623796921615792</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.106539096441006</v>
+        <v>0.04854366836573476</v>
       </c>
       <c r="E11">
-        <v>0.1360582219594733</v>
+        <v>0.1422116209382551</v>
       </c>
       <c r="F11">
-        <v>3.536236937461979</v>
+        <v>8.599716899595876</v>
       </c>
       <c r="G11">
-        <v>3.10957700108986</v>
+        <v>9.047105349505955</v>
       </c>
       <c r="H11">
-        <v>2.011467405619328</v>
+        <v>4.348053639597367</v>
       </c>
       <c r="I11">
-        <v>6.25753114434093</v>
+        <v>18.37337786845438</v>
       </c>
       <c r="J11">
-        <v>0.2489397106595561</v>
+        <v>0.4926040446385542</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.978324344474345</v>
+        <v>5.769885678609</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1065874905544781</v>
+        <v>0.0491216287925571</v>
       </c>
       <c r="E12">
-        <v>0.1364976832432454</v>
+        <v>0.1461277547264288</v>
       </c>
       <c r="F12">
-        <v>3.581282987014646</v>
+        <v>8.884478073854751</v>
       </c>
       <c r="G12">
-        <v>3.15980762891769</v>
+        <v>9.352083064803594</v>
       </c>
       <c r="H12">
-        <v>2.033183669984112</v>
+        <v>4.490500855715311</v>
       </c>
       <c r="I12">
-        <v>6.407322560669741</v>
+        <v>18.84469284874024</v>
       </c>
       <c r="J12">
-        <v>0.2512908683668513</v>
+        <v>0.5085591740632651</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.96836198986199</v>
+        <v>5.738392214595876</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1065770439752107</v>
+        <v>0.04899544965012659</v>
       </c>
       <c r="E13">
-        <v>0.1364025264829394</v>
+        <v>0.1452772041483392</v>
       </c>
       <c r="F13">
-        <v>3.571564784942183</v>
+        <v>8.822649077710849</v>
       </c>
       <c r="G13">
-        <v>3.148974891615353</v>
+        <v>9.285867886501819</v>
       </c>
       <c r="H13">
-        <v>2.02849725803037</v>
+        <v>4.459567182611977</v>
       </c>
       <c r="I13">
-        <v>6.375069214559915</v>
+        <v>18.74309994099224</v>
       </c>
       <c r="J13">
-        <v>0.2507833367248367</v>
+        <v>0.5050942797134894</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.935859098657602</v>
+        <v>5.63580211524777</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1065430670494472</v>
+        <v>0.04859046671032807</v>
       </c>
       <c r="E14">
-        <v>0.1360941466472845</v>
+        <v>0.1425306446752046</v>
       </c>
       <c r="F14">
-        <v>3.539935378736061</v>
+        <v>8.622923203844294</v>
       </c>
       <c r="G14">
-        <v>3.113702908760729</v>
+        <v>9.071960700315742</v>
       </c>
       <c r="H14">
-        <v>2.013249775342672</v>
+        <v>4.359660138630716</v>
       </c>
       <c r="I14">
-        <v>6.269857673436036</v>
+        <v>18.41211466341935</v>
       </c>
       <c r="J14">
-        <v>0.2491326164057455</v>
+        <v>0.4939040121281408</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.915939811075134</v>
+        <v>5.573050217149159</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1065223252554794</v>
+        <v>0.04834719252502317</v>
       </c>
       <c r="E15">
-        <v>0.1359067491117649</v>
+        <v>0.1408685230899813</v>
       </c>
       <c r="F15">
-        <v>3.520610273165971</v>
+        <v>8.501999999128657</v>
       </c>
       <c r="G15">
-        <v>3.092140582485115</v>
+        <v>8.942441521644128</v>
       </c>
       <c r="H15">
-        <v>2.003937769423828</v>
+        <v>4.299185188660431</v>
       </c>
       <c r="I15">
-        <v>6.205392518134545</v>
+        <v>18.20962447570048</v>
       </c>
       <c r="J15">
-        <v>0.2481249124802929</v>
+        <v>0.4871307092546147</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.801633628445018</v>
+        <v>5.214691192307612</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1064045211602469</v>
+        <v>0.04701842660999844</v>
       </c>
       <c r="E16">
-        <v>0.1348556618023871</v>
+        <v>0.1316259344029547</v>
       </c>
       <c r="F16">
-        <v>3.410606892642278</v>
+        <v>7.828661966632154</v>
       </c>
       <c r="G16">
-        <v>2.969223366258007</v>
+        <v>8.221079382949711</v>
       </c>
       <c r="H16">
-        <v>1.950992589575719</v>
+        <v>3.962630935691038</v>
       </c>
       <c r="I16">
-        <v>5.835670441680236</v>
+        <v>17.05276540083526</v>
       </c>
       <c r="J16">
-        <v>0.2424020215006948</v>
+        <v>0.4494413804276149</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.731372246120827</v>
+        <v>4.995863217550891</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1063331807884911</v>
+        <v>0.04625389486504616</v>
       </c>
       <c r="E17">
-        <v>0.1342311160739662</v>
+        <v>0.1261810070389657</v>
       </c>
       <c r="F17">
-        <v>3.343776744307405</v>
+        <v>7.431107496256146</v>
       </c>
       <c r="G17">
-        <v>2.894387060466613</v>
+        <v>7.795020981322068</v>
       </c>
       <c r="H17">
-        <v>1.918881687400301</v>
+        <v>3.764077421579202</v>
       </c>
       <c r="I17">
-        <v>5.608601612490133</v>
+        <v>16.3459397332141</v>
       </c>
       <c r="J17">
-        <v>0.2389370388622893</v>
+        <v>0.4272116384724001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.690909632146997</v>
+        <v>4.870334028617378</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1062924826548013</v>
+        <v>0.04583009834112595</v>
       </c>
       <c r="E18">
-        <v>0.1338793036318329</v>
+        <v>0.123122447074028</v>
       </c>
       <c r="F18">
-        <v>3.305574844941731</v>
+        <v>7.207443111385118</v>
       </c>
       <c r="G18">
-        <v>2.851549089412629</v>
+        <v>7.555262576986877</v>
       </c>
       <c r="H18">
-        <v>1.900546521073124</v>
+        <v>3.652424255863139</v>
       </c>
       <c r="I18">
-        <v>5.477907426104935</v>
+        <v>15.94034052935706</v>
       </c>
       <c r="J18">
-        <v>0.2369607392022033</v>
+        <v>0.4147133530076559</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.67720114299982</v>
+        <v>4.827886082284635</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1062787599065302</v>
+        <v>0.04568912425788518</v>
       </c>
       <c r="E19">
-        <v>0.1337614551878872</v>
+        <v>0.1220986372256547</v>
       </c>
       <c r="F19">
-        <v>3.292680760349469</v>
+        <v>7.132512926873773</v>
       </c>
       <c r="G19">
-        <v>2.837079934219787</v>
+        <v>7.474930559262361</v>
       </c>
       <c r="H19">
-        <v>1.89436145048802</v>
+        <v>3.615027927829999</v>
       </c>
       <c r="I19">
-        <v>5.433641513037401</v>
+        <v>15.80316478742498</v>
       </c>
       <c r="J19">
-        <v>0.2362944442791957</v>
+        <v>0.4105276656239312</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.738856893520733</v>
+        <v>5.019122345914127</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1063407402842653</v>
+        <v>0.04633357616512157</v>
       </c>
       <c r="E20">
-        <v>0.1342968323355507</v>
+        <v>0.1267528533708777</v>
       </c>
       <c r="F20">
-        <v>3.350866326720222</v>
+        <v>7.47289592478694</v>
       </c>
       <c r="G20">
-        <v>2.90233212842918</v>
+        <v>7.839811525199764</v>
       </c>
       <c r="H20">
-        <v>1.922286027038183</v>
+        <v>3.784942487022079</v>
       </c>
       <c r="I20">
-        <v>5.632782903627401</v>
+        <v>16.42108206781114</v>
       </c>
       <c r="J20">
-        <v>0.2393041633429505</v>
+        <v>0.4295474305240958</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.945408141632868</v>
+        <v>5.665916848071959</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1065530322609014</v>
+        <v>0.04870840090295125</v>
       </c>
       <c r="E21">
-        <v>0.136184413718567</v>
+        <v>0.1433330898612972</v>
       </c>
       <c r="F21">
-        <v>3.549215510681506</v>
+        <v>8.681287426108241</v>
       </c>
       <c r="G21">
-        <v>3.124054210283646</v>
+        <v>9.134471070413156</v>
       </c>
       <c r="H21">
-        <v>2.017722587296021</v>
+        <v>4.388852308911567</v>
       </c>
       <c r="I21">
-        <v>6.300765052729957</v>
+        <v>18.50928075155701</v>
       </c>
       <c r="J21">
-        <v>0.249616761358638</v>
+        <v>0.497173672360077</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.079940855282985</v>
+        <v>6.092447247814221</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1066948957068323</v>
+        <v>0.05046740922690596</v>
       </c>
       <c r="E22">
-        <v>0.1374848268051494</v>
+        <v>0.1550479381577219</v>
       </c>
       <c r="F22">
-        <v>3.681024872415463</v>
+        <v>9.532392526905255</v>
       </c>
       <c r="G22">
-        <v>3.270868098814447</v>
+        <v>10.04586460440589</v>
       </c>
       <c r="H22">
-        <v>2.081323391753187</v>
+        <v>4.814813008552903</v>
       </c>
       <c r="I22">
-        <v>6.736443306619549</v>
+        <v>19.88483939217662</v>
       </c>
       <c r="J22">
-        <v>0.2565087896800833</v>
+        <v>0.5448878574762688</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.008181005423296</v>
+        <v>5.864408231950279</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1066188884862704</v>
+        <v>0.04950573319130136</v>
       </c>
       <c r="E23">
-        <v>0.1367846235793699</v>
+        <v>0.1487018517919658</v>
       </c>
       <c r="F23">
-        <v>3.610473322205905</v>
+        <v>9.071539019827696</v>
       </c>
       <c r="G23">
-        <v>3.192332840114375</v>
+        <v>9.552403710438341</v>
       </c>
       <c r="H23">
-        <v>2.047264520717476</v>
+        <v>4.584105078277844</v>
       </c>
       <c r="I23">
-        <v>6.503998686294722</v>
+        <v>19.14956756317588</v>
       </c>
       <c r="J23">
-        <v>0.2528162789516131</v>
+        <v>0.519044105002564</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.735473297351234</v>
+        <v>5.008606037163702</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.10633732165204</v>
+        <v>0.04629750383559461</v>
       </c>
       <c r="E24">
-        <v>0.1342670994488167</v>
+        <v>0.1264941002250239</v>
       </c>
       <c r="F24">
-        <v>3.347660443095805</v>
+        <v>7.453988294254287</v>
       </c>
       <c r="G24">
-        <v>2.898739583346128</v>
+        <v>7.819545736806901</v>
       </c>
       <c r="H24">
-        <v>1.920746533548197</v>
+        <v>3.775501694333968</v>
       </c>
       <c r="I24">
-        <v>5.62185100597145</v>
+        <v>16.38710786282707</v>
       </c>
       <c r="J24">
-        <v>0.2391381373017794</v>
+        <v>0.4284905502621399</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.43940603174093</v>
+        <v>4.097905588846345</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1060463370010964</v>
+        <v>0.0434330928312221</v>
       </c>
       <c r="E25">
-        <v>0.1318343853988502</v>
+        <v>0.1052804358372583</v>
       </c>
       <c r="F25">
-        <v>3.073198553213103</v>
+        <v>5.896092321674075</v>
       </c>
       <c r="G25">
-        <v>2.589881758271019</v>
+        <v>6.148476221074304</v>
       </c>
       <c r="H25">
-        <v>1.789387422476921</v>
+        <v>2.998635012376724</v>
       </c>
       <c r="I25">
-        <v>4.666914883151094</v>
+        <v>13.44254217779275</v>
       </c>
       <c r="J25">
-        <v>0.2250191059075775</v>
+        <v>0.3415727246336644</v>
       </c>
       <c r="K25">
         <v>0</v>
